--- a/pred_ohlcv/54_21/2020-01-11 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 DAD ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>-212533.298830092</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-201941.697030092</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-202240.720930092</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-202229.720930092</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-202229.720930092</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-208954.936930092</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-208784.353930092</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-215485.588930092</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-214830.327130092</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-217282.224830092</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-217282.224830092</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-217285.204830092</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-285980.9219371638</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-502464.5710035986</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-511098.4071035986</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-531836.0077035986</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-524477.0287188836</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-524482.9287188837</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-539542.8053188836</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-546611.4021188837</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-539756.5132188837</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-545527.3015188837</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-598881.3621803267</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-598932.1030803267</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-598937.8030803266</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-598937.8030803266</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-594340.9029803267</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-600325.8442803266</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-581177.0071404811</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-576215.4736404811</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-576217.9036404812</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-585464.4676404812</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-584146.7855404812</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-581057.7198404812</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-585743.7973404812</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-587486.0588404812</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-588615.1891404812</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-588649.3003404812</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-589040.9556404812</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-572058.3632442022</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-578160.0876442022</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-575358.8870442022</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-559985.6707479232</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-576773.1843479231</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-578173.4769479232</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-578173.4769479232</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-575545.2349479232</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-578788.7091479233</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-574419.4625479233</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-555703.1006607884</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-525117.4230898943</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-532200.3928898943</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-522652.1159898943</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-543513.1069898943</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-619872.8798898944</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-642430.4600898944</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-671105.4190898944</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-693936.3693898944</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-683795.6885898944</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-691459.5249898945</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-718017.1140898945</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-752499.2572898945</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-732076.4003898945</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-765743.7880898945</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-724617.5253898945</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-665202.7331669979</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-665202.7331669979</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-978151.0662592653</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-981015.4244592653</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-986803.3790592654</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-981554.2007592653</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-976850.2406592655</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-974946.9231592655</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-969104.0030202186</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-967301.6805202186</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-972206.0913202185</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-973208.1588202185</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-993727.8710202185</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-993727.8710202185</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-1012567.174320219</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-1037509.343320218</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-1037420.444920219</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-1034548.879920219</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-1034548.879920219</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-1035464.546620219</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-1078364.238220219</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1084386.255051625</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-1084398.255051625</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-1081110.630051625</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-1073610.505551626</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-1073610.505551626</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-1073460.020251625</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-1096607.611251625</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-1122656.159551625</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-1066218.536551625</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-1066215.536551625</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-1066813.205151625</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-1068500.350751625</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-1066961.844151625</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-1065640.175951625</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-1067166.092451625</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-1072498.275051625</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-1097359.020851625</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-1140031.206451625</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-1140031.206451625</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1146544.785051625</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-1144105.147051625</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-1140794.401651625</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-1140794.401651625</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-1148195.215151625</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1169149.854351624</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1169146.854351624</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-1169052.156193854</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-1169908.390993854</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-1169973.962293854</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 DAD ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>-212533.298830092</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-214456.204430092</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-201941.697030092</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-201941.697030092</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-202240.720930092</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-202229.720930092</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-202229.720930092</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-208954.936930092</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-208784.353930092</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-215485.588930092</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-214830.327130092</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-217282.224830092</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-217282.224830092</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-285980.9219371638</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-502464.5710035986</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-511098.4071035986</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-531836.0077035986</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-524477.0287188836</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-524482.9287188837</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-539542.8053188836</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-539539.8963188836</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-546611.4021188837</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-539756.5132188837</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-545527.3015188837</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-598881.3621803267</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-598932.1030803267</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-598937.8030803266</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-598937.8030803266</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-594340.9029803267</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-600325.8442803266</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-581177.0071404811</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-576215.4736404811</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-576217.9036404812</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-585464.4676404812</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-584146.7855404812</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-581057.7198404812</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-585743.7973404812</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-587486.0588404812</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-588615.1891404812</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-588649.3003404812</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-589040.9556404812</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-572058.3632442022</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-578160.0876442022</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-575358.8870442022</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-559985.6707479232</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-576773.1843479231</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-578173.4769479232</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-578173.4769479232</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-575545.2349479232</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-578788.7091479233</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-574419.4625479233</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-555703.1006607884</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-525117.4230898943</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-532200.3928898943</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-543513.1069898943</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-547625.8140898943</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-558794.3826898944</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-560521.9633898945</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-619872.8798898944</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-642430.4600898944</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-671105.4190898944</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-693936.3693898944</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-683795.6885898944</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-691459.5249898945</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-718017.1140898945</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-752499.2572898945</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-732076.4003898945</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-765743.7880898945</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-724617.5253898945</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-665202.7331669979</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-665202.7331669979</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-991442.7035592654</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-991442.7035592654</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-991442.7035592654</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-983768.2693592653</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-992544.2586592654</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-992544.2586592654</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-990842.0000592654</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-979768.7522592654</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-1023915.748620219</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-1076327.304751626</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-1065640.175951625</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-1067166.092451625</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-1072498.275051625</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-1097359.020851625</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-1140031.206451625</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-1140031.206451625</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-1146534.251651625</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1146544.785051625</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-1144105.147051625</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-1143533.970751625</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-1145174.333751625</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-1140794.401651625</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-1140794.401651625</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-1148195.215151625</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1169149.854351624</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
